--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idarosa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D735639C-69F7-411B-A352-DC7E2D12B3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0AE88-FA82-497D-BCE4-1F7EAD76E4DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{37F3745D-179C-4C7A-BB67-F30A79BF22D6}"/>
   </bookViews>
@@ -376,27 +376,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ED3B83-A803-4C2F-A803-11AD20FBC2DF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
